--- a/FishLandings/household groups/statistics/Omnivorous (%)_output.xlsx
+++ b/FishLandings/household groups/statistics/Omnivorous (%)_output.xlsx
@@ -416,16 +416,16 @@
         </is>
       </c>
       <c r="B2">
-        <v>1396.011396</v>
+        <v>2358.674464</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>2.972005</v>
+        <v>4.980593</v>
       </c>
       <c r="E2">
-        <v>0.086103</v>
+        <v>0.0263</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -440,16 +440,16 @@
         </is>
       </c>
       <c r="B3">
-        <v>818.935035</v>
+        <v>1475.216787</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>0.871726</v>
+        <v>1.557539</v>
       </c>
       <c r="E3">
-        <v>0.419649</v>
+        <v>0.212189</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -464,10 +464,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>104747.660202</v>
+        <v>157226.247755</v>
       </c>
       <c r="C4">
-        <v>223</v>
+        <v>332</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -487,16 +487,16 @@
         </is>
       </c>
       <c r="G5">
-        <v>5.179519</v>
+        <v>5.715498</v>
       </c>
       <c r="H5">
-        <v>-4.285879</v>
+        <v>-2.174512</v>
       </c>
       <c r="I5">
-        <v>14.644916</v>
+        <v>13.605507</v>
       </c>
       <c r="J5">
-        <v>0.401663</v>
+        <v>0.204647</v>
       </c>
     </row>
     <row r="6">
@@ -511,16 +511,16 @@
         </is>
       </c>
       <c r="G6">
-        <v>4.735163</v>
+        <v>5.363755</v>
       </c>
       <c r="H6">
-        <v>-5.457066</v>
+        <v>-2.92343</v>
       </c>
       <c r="I6">
-        <v>14.927392</v>
+        <v>13.65094</v>
       </c>
       <c r="J6">
-        <v>0.517438</v>
+        <v>0.281067</v>
       </c>
     </row>
     <row r="7">
@@ -535,16 +535,16 @@
         </is>
       </c>
       <c r="G7">
-        <v>-0.444356</v>
+        <v>-0.351743</v>
       </c>
       <c r="H7">
-        <v>-8.149787</v>
+        <v>-6.583153</v>
       </c>
       <c r="I7">
-        <v>7.261075</v>
+        <v>5.879667</v>
       </c>
       <c r="J7">
-        <v>0.989846</v>
+        <v>0.9903110000000001</v>
       </c>
     </row>
   </sheetData>

--- a/FishLandings/household groups/statistics/Omnivorous (%)_output.xlsx
+++ b/FishLandings/household groups/statistics/Omnivorous (%)_output.xlsx
@@ -416,16 +416,16 @@
         </is>
       </c>
       <c r="B2">
-        <v>2358.674464</v>
+        <v>1396.011396</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>4.980593</v>
+        <v>2.972005</v>
       </c>
       <c r="E2">
-        <v>0.0263</v>
+        <v>0.086103</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -440,16 +440,16 @@
         </is>
       </c>
       <c r="B3">
-        <v>1475.216787</v>
+        <v>818.935035</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>1.557539</v>
+        <v>0.871726</v>
       </c>
       <c r="E3">
-        <v>0.212189</v>
+        <v>0.419649</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -464,10 +464,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>157226.247755</v>
+        <v>104747.660202</v>
       </c>
       <c r="C4">
-        <v>332</v>
+        <v>223</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -487,16 +487,16 @@
         </is>
       </c>
       <c r="G5">
-        <v>5.715498</v>
+        <v>5.179519</v>
       </c>
       <c r="H5">
-        <v>-2.174512</v>
+        <v>-4.285879</v>
       </c>
       <c r="I5">
-        <v>13.605507</v>
+        <v>14.644916</v>
       </c>
       <c r="J5">
-        <v>0.204647</v>
+        <v>0.401663</v>
       </c>
     </row>
     <row r="6">
@@ -511,16 +511,16 @@
         </is>
       </c>
       <c r="G6">
-        <v>5.363755</v>
+        <v>4.735163</v>
       </c>
       <c r="H6">
-        <v>-2.92343</v>
+        <v>-5.457066</v>
       </c>
       <c r="I6">
-        <v>13.65094</v>
+        <v>14.927392</v>
       </c>
       <c r="J6">
-        <v>0.281067</v>
+        <v>0.517438</v>
       </c>
     </row>
     <row r="7">
@@ -535,16 +535,16 @@
         </is>
       </c>
       <c r="G7">
-        <v>-0.351743</v>
+        <v>-0.444356</v>
       </c>
       <c r="H7">
-        <v>-6.583153</v>
+        <v>-8.149787</v>
       </c>
       <c r="I7">
-        <v>5.879667</v>
+        <v>7.261075</v>
       </c>
       <c r="J7">
-        <v>0.9903110000000001</v>
+        <v>0.989846</v>
       </c>
     </row>
   </sheetData>
